--- a/PREGAME/1_ELICITACION/1.6 BACKLOG/G3_Backlog_V1.1.xlsx
+++ b/PREGAME/1_ELICITACION/1.6 BACKLOG/G3_Backlog_V1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\UNIVERSIDAD\Aseguramiento de la Calidad del Software\Segundo Parcial\15390_G3_ACSW\PREGAME\1_ELICITACION\1.6 BACKLOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22B4A99C-89FA-487D-8D3F-3CF9BA165DCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763CCC73-9936-48A0-9A85-0E0CFBDC3D45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="16215" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="16215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -559,30 +559,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -605,6 +581,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1977,8 +1977,8 @@
   </sheetPr>
   <dimension ref="A1:XFD1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -44744,10 +44744,10 @@
       <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="40" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="10"/>
@@ -87454,19 +87454,19 @@
       <c r="A4" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="38" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="36" t="s">
         <v>58</v>
       </c>
@@ -87478,19 +87478,19 @@
       <c r="A5" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="38" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="47"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="36" t="s">
         <v>58</v>
       </c>
@@ -87502,19 +87502,19 @@
       <c r="A6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="38" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="47"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="36" t="s">
         <v>58</v>
       </c>
@@ -88613,16 +88613,16 @@
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="41"/>
+      <c r="H5" s="53"/>
       <c r="I5" s="4" t="s">
         <v>26</v>
       </c>
@@ -88631,16 +88631,16 @@
       <c r="B6" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="38" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="8">
         <v>1</v>
       </c>
@@ -88649,16 +88649,16 @@
       <c r="B7" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="38" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="8">
         <v>2</v>
       </c>
@@ -88667,16 +88667,16 @@
       <c r="B8" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="38" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="38"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="8">
         <v>1</v>
       </c>
@@ -88685,16 +88685,16 @@
       <c r="B9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="38"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="8">
         <v>1</v>
       </c>
@@ -88761,16 +88761,16 @@
     </row>
     <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="42" t="s">
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="44"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="4" t="s">
         <v>26</v>
       </c>
@@ -88779,16 +88779,16 @@
       <c r="B14" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="38" t="s">
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="8">
         <v>1</v>
       </c>
@@ -88797,16 +88797,16 @@
       <c r="B15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="38" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="8">
         <v>1</v>
       </c>
@@ -88815,16 +88815,16 @@
       <c r="B16" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="38" t="s">
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="8">
         <v>2</v>
       </c>
@@ -88833,16 +88833,16 @@
       <c r="B17" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="38" t="s">
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="8">
         <v>1</v>
       </c>
@@ -88884,41 +88884,41 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="50" t="s">
+      <c r="D20" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="51" t="s">
+      <c r="G20" s="44"/>
+      <c r="H20" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="51" t="s">
+      <c r="I20" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="42" t="s">
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="44"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="37" t="s">
         <v>26</v>
       </c>
@@ -88927,16 +88927,16 @@
       <c r="B22" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="38" t="s">
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="38"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="8">
         <v>6</v>
       </c>
@@ -88945,16 +88945,16 @@
       <c r="B23" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="38" t="s">
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="38"/>
+      <c r="H23" s="47"/>
       <c r="I23" s="8">
         <v>4</v>
       </c>
@@ -88963,16 +88963,16 @@
       <c r="B24" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="38" t="s">
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="38"/>
+      <c r="H24" s="47"/>
       <c r="I24" s="8">
         <v>2</v>
       </c>
@@ -88981,16 +88981,16 @@
       <c r="B25" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="38" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="38"/>
+      <c r="H25" s="47"/>
       <c r="I25" s="8">
         <v>1</v>
       </c>
@@ -89024,41 +89024,41 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="50" t="s">
+      <c r="D29" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="51" t="s">
+      <c r="G29" s="44"/>
+      <c r="H29" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="I29" s="51" t="s">
+      <c r="I29" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="42" t="s">
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="44"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="37" t="s">
         <v>26</v>
       </c>
@@ -89067,16 +89067,16 @@
       <c r="B31" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="38" t="s">
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="38"/>
+      <c r="H31" s="47"/>
       <c r="I31" s="8">
         <v>1</v>
       </c>
@@ -89085,16 +89085,16 @@
       <c r="B32" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="38" t="s">
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="38"/>
+      <c r="H32" s="47"/>
       <c r="I32" s="8">
         <v>6</v>
       </c>
@@ -89128,41 +89128,41 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="50" t="s">
+      <c r="D36" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="53"/>
-      <c r="H36" s="51" t="s">
+      <c r="G36" s="45"/>
+      <c r="H36" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="51" t="s">
+      <c r="I36" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="42" t="s">
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="44"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="37" t="s">
         <v>26</v>
       </c>
@@ -89171,16 +89171,16 @@
       <c r="B38" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="38" t="s">
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="38"/>
+      <c r="H38" s="47"/>
       <c r="I38" s="8">
         <v>1</v>
       </c>
@@ -89189,16 +89189,16 @@
       <c r="B39" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="38" t="s">
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="38"/>
+      <c r="H39" s="47"/>
       <c r="I39" s="8">
         <v>6</v>
       </c>
@@ -89207,16 +89207,16 @@
       <c r="B40" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="38" t="s">
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="38"/>
+      <c r="H40" s="47"/>
       <c r="I40" s="8">
         <v>6</v>
       </c>
@@ -90182,14 +90182,32 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C32:F32"/>
@@ -90200,32 +90218,14 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:H38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -90239,7 +90239,7 @@
   </sheetPr>
   <dimension ref="A3:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="78" workbookViewId="0">
+    <sheetView zoomScale="78" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -90509,7 +90509,7 @@
     <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="54"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -90628,7 +90628,7 @@
     <row r="18" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="54"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -90693,7 +90693,7 @@
     <row r="21" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
-      <c r="C21" s="54"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
